--- a/team_specific_matrix/Army West Point_B.xlsx
+++ b/team_specific_matrix/Army West Point_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2123893805309734</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C2">
-        <v>0.5486725663716814</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004424778761061947</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1548672566371681</v>
+        <v>0.1355311355311355</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07964601769911504</v>
+        <v>0.09157509157509157</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02479338842975207</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7355371900826446</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2396694214876033</v>
+        <v>0.2171052631578947</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6153846153846154</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3461538461538461</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.045</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.21</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.025</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.175</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="R6">
         <v>0.075</v>
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1134020618556701</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02061855670103093</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04123711340206185</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1237113402061856</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02061855670103093</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1855670103092784</v>
+        <v>0.1875</v>
       </c>
       <c r="R7">
-        <v>0.08247422680412371</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S7">
-        <v>0.4123711340206185</v>
+        <v>0.4464285714285715</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07516339869281045</v>
+        <v>0.08077994428969359</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01633986928104575</v>
+        <v>0.02228412256267409</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07516339869281045</v>
+        <v>0.06685236768802229</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.130718954248366</v>
+        <v>0.1197771587743733</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0130718954248366</v>
+        <v>0.01671309192200557</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1568627450980392</v>
+        <v>0.1643454038997214</v>
       </c>
       <c r="R8">
-        <v>0.07516339869281045</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="S8">
-        <v>0.457516339869281</v>
+        <v>0.4512534818941504</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09550561797752809</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02247191011235955</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.101123595505618</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0898876404494382</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01685393258426966</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1685393258426966</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R9">
-        <v>0.05617977528089887</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="S9">
-        <v>0.449438202247191</v>
+        <v>0.4259259259259259</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1038197845249755</v>
+        <v>0.1053471667996808</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01371204701273262</v>
+        <v>0.01516360734237829</v>
       </c>
       <c r="E10">
-        <v>0.001958863858961802</v>
+        <v>0.001596169193934557</v>
       </c>
       <c r="F10">
-        <v>0.08227228207639568</v>
+        <v>0.08459696727853153</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.10871694417238</v>
+        <v>0.09896249002394254</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01665034280117532</v>
+        <v>0.02075019952114924</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1929480901077375</v>
+        <v>0.1987230646448523</v>
       </c>
       <c r="R10">
-        <v>0.08031341821743389</v>
+        <v>0.07980845969672785</v>
       </c>
       <c r="S10">
-        <v>0.3996082272282077</v>
+        <v>0.3950518754988029</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1339712918660287</v>
+        <v>0.1322314049586777</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1339712918660287</v>
+        <v>0.140495867768595</v>
       </c>
       <c r="K11">
-        <v>0.2392344497607655</v>
+        <v>0.243801652892562</v>
       </c>
       <c r="L11">
-        <v>0.4688995215311005</v>
+        <v>0.4586776859504132</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02392344497607655</v>
+        <v>0.02479338842975207</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5882352941176471</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2745098039215687</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0392156862745098</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.09803921568627451</v>
+        <v>0.09482758620689655</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.48</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.36</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.16</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02116402116402116</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.1275720164609054</v>
       </c>
       <c r="I15">
-        <v>0.06878306878306878</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J15">
-        <v>0.4338624338624338</v>
+        <v>0.4238683127572017</v>
       </c>
       <c r="K15">
-        <v>0.04232804232804233</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01587301587301587</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06349206349206349</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2116402116402116</v>
+        <v>0.2263374485596708</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02222222222222222</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0962962962962963</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I16">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J16">
-        <v>0.4222222222222222</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="K16">
-        <v>0.1407407407407407</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="N16">
-        <v>0.007407407407407408</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="O16">
-        <v>0.06666666666666667</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03343465045592705</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1519756838905775</v>
+        <v>0.1473429951690821</v>
       </c>
       <c r="I17">
-        <v>0.1033434650455927</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="J17">
-        <v>0.4437689969604863</v>
+        <v>0.4468599033816425</v>
       </c>
       <c r="K17">
-        <v>0.05775075987841945</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0182370820668693</v>
+        <v>0.01690821256038647</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08206686930091185</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1094224924012158</v>
+        <v>0.1159420289855072</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1510791366906475</v>
+        <v>0.1479289940828402</v>
       </c>
       <c r="I18">
-        <v>0.1079136690647482</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="J18">
-        <v>0.3741007194244604</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K18">
-        <v>0.1079136690647482</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01438848920863309</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08633093525179857</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.158273381294964</v>
+        <v>0.1597633136094675</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01469147894221352</v>
+        <v>0.01693548387096774</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1909892262487757</v>
+        <v>0.182258064516129</v>
       </c>
       <c r="I19">
-        <v>0.09990205680705191</v>
+        <v>0.1</v>
       </c>
       <c r="J19">
-        <v>0.4015670910871694</v>
+        <v>0.4064516129032258</v>
       </c>
       <c r="K19">
-        <v>0.09500489715964741</v>
+        <v>0.09193548387096774</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01469147894221352</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008064516129032258</v>
       </c>
       <c r="O19">
-        <v>0.0832517140058766</v>
+        <v>0.08145161290322581</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09990205680705191</v>
+        <v>0.1040322580645161</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Army West Point_B.xlsx
+++ b/team_specific_matrix/Army West Point_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2051282051282051</v>
+        <v>0.2081911262798635</v>
       </c>
       <c r="C2">
-        <v>0.5604395604395604</v>
+        <v>0.552901023890785</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007326007326007326</v>
+        <v>0.006825938566552901</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1355311355311355</v>
+        <v>0.1331058020477816</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09157509157509157</v>
+        <v>0.09897610921501707</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03289473684210526</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2171052631578947</v>
+        <v>0.2298136645962733</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6944444444444444</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08749999999999999</v>
+        <v>0.08239700374531835</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008333333333333333</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04166666666666666</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2083333333333333</v>
+        <v>0.2059925093632959</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02083333333333333</v>
+        <v>0.01872659176029963</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1833333333333333</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="R6">
-        <v>0.075</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.3820224719101123</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09821428571428571</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01785714285714286</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03571428571428571</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01785714285714286</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1875</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="R7">
-        <v>0.07142857142857142</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="S7">
-        <v>0.4464285714285715</v>
+        <v>0.4262295081967213</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08077994428969359</v>
+        <v>0.08607594936708861</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02228412256267409</v>
+        <v>0.02278481012658228</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06685236768802229</v>
+        <v>0.07088607594936709</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1197771587743733</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01671309192200557</v>
+        <v>0.01518987341772152</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1643454038997214</v>
+        <v>0.1721518987341772</v>
       </c>
       <c r="R8">
-        <v>0.07799442896935933</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="S8">
-        <v>0.4512534818941504</v>
+        <v>0.4430379746835443</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09722222222222222</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02314814814814815</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09722222222222222</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09722222222222222</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01388888888888889</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1851851851851852</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="R9">
-        <v>0.06018518518518518</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="S9">
-        <v>0.4259259259259259</v>
+        <v>0.4067796610169492</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1053471667996808</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01516360734237829</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="E10">
-        <v>0.001596169193934557</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="F10">
-        <v>0.08459696727853153</v>
+        <v>0.08345323741007195</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09896249002394254</v>
+        <v>0.102158273381295</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02075019952114924</v>
+        <v>0.01942446043165467</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1987230646448523</v>
+        <v>0.1971223021582734</v>
       </c>
       <c r="R10">
-        <v>0.07980845969672785</v>
+        <v>0.08633093525179857</v>
       </c>
       <c r="S10">
-        <v>0.3950518754988029</v>
+        <v>0.3956834532374101</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1322314049586777</v>
+        <v>0.1368821292775665</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.140495867768595</v>
+        <v>0.1330798479087452</v>
       </c>
       <c r="K11">
-        <v>0.243801652892562</v>
+        <v>0.2395437262357414</v>
       </c>
       <c r="L11">
-        <v>0.4586776859504132</v>
+        <v>0.4638783269961977</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02479338842975207</v>
+        <v>0.02661596958174905</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5689655172413793</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.293103448275862</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04310344827586207</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.09482758620689655</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4848484848484849</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3939393939393939</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0205761316872428</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1275720164609054</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="I15">
         <v>0.07407407407407407</v>
       </c>
       <c r="J15">
-        <v>0.4238683127572017</v>
+        <v>0.4370370370370371</v>
       </c>
       <c r="K15">
-        <v>0.0411522633744856</v>
+        <v>0.05185185185185185</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01646090534979424</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06995884773662552</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2263374485596708</v>
+        <v>0.2148148148148148</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.09523809523809523</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="I16">
-        <v>0.1071428571428571</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="J16">
-        <v>0.4464285714285715</v>
+        <v>0.4519774011299435</v>
       </c>
       <c r="K16">
-        <v>0.119047619047619</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005952380952380952</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="N16">
-        <v>0.005952380952380952</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="O16">
-        <v>0.07738095238095238</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.1242937853107345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02898550724637681</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1473429951690821</v>
+        <v>0.1475770925110132</v>
       </c>
       <c r="I17">
-        <v>0.0966183574879227</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="J17">
-        <v>0.4468599033816425</v>
+        <v>0.4449339207048458</v>
       </c>
       <c r="K17">
-        <v>0.05555555555555555</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01690821256038647</v>
+        <v>0.01541850220264317</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.09178743961352658</v>
+        <v>0.09911894273127753</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1159420289855072</v>
+        <v>0.1123348017621145</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1479289940828402</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="I18">
-        <v>0.1005917159763314</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="J18">
-        <v>0.3846153846153846</v>
+        <v>0.3919597989949749</v>
       </c>
       <c r="K18">
-        <v>0.1005917159763314</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01775147928994083</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08875739644970414</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1597633136094675</v>
+        <v>0.1457286432160804</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01693548387096774</v>
+        <v>0.01621223286661754</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.182258064516129</v>
+        <v>0.180545320560059</v>
       </c>
       <c r="I19">
-        <v>0.1</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="J19">
-        <v>0.4064516129032258</v>
+        <v>0.4089904200442152</v>
       </c>
       <c r="K19">
-        <v>0.09193548387096774</v>
+        <v>0.08769344141488578</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01612903225806452</v>
+        <v>0.0154753131908622</v>
       </c>
       <c r="N19">
-        <v>0.0008064516129032258</v>
+        <v>0.0007369196757553427</v>
       </c>
       <c r="O19">
-        <v>0.08145161290322581</v>
+        <v>0.08327192336035372</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1040322580645161</v>
+        <v>0.105379513633014</v>
       </c>
     </row>
   </sheetData>
